--- a/Code/Results/Cases/Case_1_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01404683509348</v>
+        <v>1.063698992546387</v>
       </c>
       <c r="D2">
-        <v>1.036400281881312</v>
+        <v>1.045782457955618</v>
       </c>
       <c r="E2">
-        <v>1.024434029982359</v>
+        <v>1.068376116009812</v>
       </c>
       <c r="F2">
-        <v>1.027604410287012</v>
+        <v>1.077582912093766</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049065972447482</v>
+        <v>1.044904775299537</v>
       </c>
       <c r="J2">
-        <v>1.035815374035501</v>
+        <v>1.068663028303149</v>
       </c>
       <c r="K2">
-        <v>1.047374766987418</v>
+        <v>1.048549731816482</v>
       </c>
       <c r="L2">
-        <v>1.035563139952603</v>
+        <v>1.071081464442082</v>
       </c>
       <c r="M2">
-        <v>1.038692114367559</v>
+        <v>1.080263831214167</v>
       </c>
       <c r="N2">
-        <v>1.037286350676353</v>
+        <v>1.070180652380701</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02216605848474</v>
+        <v>1.06529527807644</v>
       </c>
       <c r="D3">
-        <v>1.040136695735247</v>
+        <v>1.046501588922199</v>
       </c>
       <c r="E3">
-        <v>1.031633895808597</v>
+        <v>1.069841698826519</v>
       </c>
       <c r="F3">
-        <v>1.035595393695661</v>
+        <v>1.079231884031212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051366421859562</v>
+        <v>1.045274168214591</v>
       </c>
       <c r="J3">
-        <v>1.042070167171155</v>
+        <v>1.069911169654141</v>
       </c>
       <c r="K3">
-        <v>1.050280538946526</v>
+        <v>1.049080613309382</v>
       </c>
       <c r="L3">
-        <v>1.041877403002637</v>
+        <v>1.072361399854886</v>
       </c>
       <c r="M3">
-        <v>1.045792214949475</v>
+        <v>1.081728496877777</v>
       </c>
       <c r="N3">
-        <v>1.043550026335657</v>
+        <v>1.071430566235576</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027252899769799</v>
+        <v>1.066326355271698</v>
       </c>
       <c r="D4">
-        <v>1.042487359180475</v>
+        <v>1.04696614021125</v>
       </c>
       <c r="E4">
-        <v>1.036150815859175</v>
+        <v>1.070788577714938</v>
       </c>
       <c r="F4">
-        <v>1.040610746316483</v>
+        <v>1.080297662927486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052797459583559</v>
+        <v>1.045511283590716</v>
       </c>
       <c r="J4">
-        <v>1.045984262622213</v>
+        <v>1.070716587263323</v>
       </c>
       <c r="K4">
-        <v>1.052098678519123</v>
+        <v>1.049422685365117</v>
       </c>
       <c r="L4">
-        <v>1.045831664711922</v>
+        <v>1.073187636220298</v>
       </c>
       <c r="M4">
-        <v>1.050242548953299</v>
+        <v>1.082674534170647</v>
       </c>
       <c r="N4">
-        <v>1.047469680251208</v>
+        <v>1.072237127630146</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029353871284622</v>
+        <v>1.066759392608112</v>
       </c>
       <c r="D5">
-        <v>1.043460320543247</v>
+        <v>1.047161253765016</v>
       </c>
       <c r="E5">
-        <v>1.038017766006581</v>
+        <v>1.07118630629387</v>
       </c>
       <c r="F5">
-        <v>1.042684248161809</v>
+        <v>1.080745434446511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053385959874301</v>
+        <v>1.045610512600977</v>
       </c>
       <c r="J5">
-        <v>1.047599681706498</v>
+        <v>1.071054662424139</v>
       </c>
       <c r="K5">
-        <v>1.052848878026958</v>
+        <v>1.049566148702242</v>
       </c>
       <c r="L5">
-        <v>1.04746436527284</v>
+        <v>1.073534522472364</v>
       </c>
       <c r="M5">
-        <v>1.052081036689237</v>
+        <v>1.083071849868183</v>
       </c>
       <c r="N5">
-        <v>1.049087393415884</v>
+        <v>1.072575682896468</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029704498348859</v>
+        <v>1.066832076693286</v>
       </c>
       <c r="D6">
-        <v>1.043622812137178</v>
+        <v>1.047194003457137</v>
       </c>
       <c r="E6">
-        <v>1.038329415703048</v>
+        <v>1.071253067010076</v>
       </c>
       <c r="F6">
-        <v>1.043030409961104</v>
+        <v>1.080820600989652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053484021085116</v>
+        <v>1.045627147010137</v>
       </c>
       <c r="J6">
-        <v>1.047869204306772</v>
+        <v>1.071111396313383</v>
       </c>
       <c r="K6">
-        <v>1.052974029983673</v>
+        <v>1.049590216724245</v>
       </c>
       <c r="L6">
-        <v>1.047736812497885</v>
+        <v>1.073592739236417</v>
       </c>
       <c r="M6">
-        <v>1.052387880326557</v>
+        <v>1.083138537805171</v>
       </c>
       <c r="N6">
-        <v>1.049357298769165</v>
+        <v>1.072632497354343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027281117530215</v>
+        <v>1.066332143205659</v>
       </c>
       <c r="D7">
-        <v>1.04250041889016</v>
+        <v>1.046968748048384</v>
       </c>
       <c r="E7">
-        <v>1.036175885217681</v>
+        <v>1.070793893506905</v>
       </c>
       <c r="F7">
-        <v>1.040638587079155</v>
+        <v>1.080303647168824</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052805373830051</v>
+        <v>1.045512611276049</v>
       </c>
       <c r="J7">
-        <v>1.046005963793524</v>
+        <v>1.070721106683654</v>
       </c>
       <c r="K7">
-        <v>1.052108757404069</v>
+        <v>1.049424603677668</v>
       </c>
       <c r="L7">
-        <v>1.045853595254415</v>
+        <v>1.073192273143444</v>
       </c>
       <c r="M7">
-        <v>1.050267239820594</v>
+        <v>1.082679844677392</v>
       </c>
       <c r="N7">
-        <v>1.047491412240672</v>
+        <v>1.072241653468571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016826830015482</v>
+        <v>1.064238848714735</v>
       </c>
       <c r="D8">
-        <v>1.03767740283263</v>
+        <v>1.046025652985839</v>
       </c>
       <c r="E8">
-        <v>1.026897898887585</v>
+        <v>1.068871721962674</v>
       </c>
       <c r="F8">
-        <v>1.030338580286901</v>
+        <v>1.078140447279862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049855743536664</v>
+        <v>1.045030009417458</v>
       </c>
       <c r="J8">
-        <v>1.037957932133175</v>
+        <v>1.069085306305535</v>
       </c>
       <c r="K8">
-        <v>1.048370095103147</v>
+        <v>1.048729445786476</v>
       </c>
       <c r="L8">
-        <v>1.037725442141037</v>
+        <v>1.071514436501204</v>
       </c>
       <c r="M8">
-        <v>1.041122698454372</v>
+        <v>1.080759178787896</v>
       </c>
       <c r="N8">
-        <v>1.039431951452244</v>
+        <v>1.070603530066287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9970059646578059</v>
+        <v>1.060535773092363</v>
       </c>
       <c r="D9">
-        <v>1.028625431106612</v>
+        <v>1.044357793157307</v>
       </c>
       <c r="E9">
-        <v>1.009361553690288</v>
+        <v>1.065473130716388</v>
       </c>
       <c r="F9">
-        <v>1.010886171116471</v>
+        <v>1.074318882725427</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044184537491955</v>
+        <v>1.044164905025057</v>
       </c>
       <c r="J9">
-        <v>1.022664894851878</v>
+        <v>1.066185529719609</v>
       </c>
       <c r="K9">
-        <v>1.041270546177531</v>
+        <v>1.047493345634565</v>
       </c>
       <c r="L9">
-        <v>1.022304550444805</v>
+        <v>1.068542468707098</v>
       </c>
       <c r="M9">
-        <v>1.02380506281607</v>
+        <v>1.077361325499974</v>
       </c>
       <c r="N9">
-        <v>1.02411719630387</v>
+        <v>1.067699635465</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9826571120021729</v>
+        <v>1.058056746553935</v>
       </c>
       <c r="D10">
-        <v>1.022155820245221</v>
+        <v>1.043241742116987</v>
       </c>
       <c r="E10">
-        <v>0.9967113441039672</v>
+        <v>1.063199172374968</v>
       </c>
       <c r="F10">
-        <v>0.9968619782400917</v>
+        <v>1.071764048198056</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040032439711492</v>
+        <v>1.043578150088268</v>
       </c>
       <c r="J10">
-        <v>1.011576125057423</v>
+        <v>1.064240250066305</v>
       </c>
       <c r="K10">
-        <v>1.036136244481808</v>
+        <v>1.046661664777704</v>
       </c>
       <c r="L10">
-        <v>1.011140231207347</v>
+        <v>1.066550325600353</v>
       </c>
       <c r="M10">
-        <v>1.01128812273054</v>
+        <v>1.075086550884299</v>
       </c>
       <c r="N10">
-        <v>1.013012679184407</v>
+        <v>1.065751593291461</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.976122440027021</v>
+        <v>1.056980718591086</v>
       </c>
       <c r="D11">
-        <v>1.019234494744887</v>
+        <v>1.042757471987083</v>
       </c>
       <c r="E11">
-        <v>0.9909629550298589</v>
+        <v>1.062212456264903</v>
       </c>
       <c r="F11">
-        <v>0.9904905346565667</v>
+        <v>1.070655956343567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038132323058076</v>
+        <v>1.043321671594567</v>
       </c>
       <c r="J11">
-        <v>1.006523431824144</v>
+        <v>1.063394947884082</v>
       </c>
       <c r="K11">
-        <v>1.033802569501719</v>
+        <v>1.04629970392311</v>
       </c>
       <c r="L11">
-        <v>1.006057333082563</v>
+        <v>1.06568503054958</v>
       </c>
       <c r="M11">
-        <v>1.005594041735483</v>
+        <v>1.074099166464826</v>
       </c>
       <c r="N11">
-        <v>1.007952810547186</v>
+        <v>1.064905090683182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9736415840988039</v>
+        <v>1.056580632442411</v>
       </c>
       <c r="D12">
-        <v>1.018129689421544</v>
+        <v>1.042577438128401</v>
       </c>
       <c r="E12">
-        <v>0.9887827168199711</v>
+        <v>1.061845623929459</v>
       </c>
       <c r="F12">
-        <v>0.9880741160995343</v>
+        <v>1.070244075198306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037409753325944</v>
+        <v>1.043226039304036</v>
       </c>
       <c r="J12">
-        <v>1.004604943155308</v>
+        <v>1.063080507614276</v>
       </c>
       <c r="K12">
-        <v>1.032917605000732</v>
+        <v>1.046164976984423</v>
       </c>
       <c r="L12">
-        <v>1.004128024546161</v>
+        <v>1.065363208986827</v>
       </c>
       <c r="M12">
-        <v>1.003433420254231</v>
+        <v>1.073732038193133</v>
       </c>
       <c r="N12">
-        <v>1.006031597404386</v>
+        <v>1.064590203872127</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9741762548528806</v>
+        <v>1.056666470637655</v>
       </c>
       <c r="D13">
-        <v>1.018367594723385</v>
+        <v>1.04261606302398</v>
       </c>
       <c r="E13">
-        <v>0.9892525001713973</v>
+        <v>1.061924325444618</v>
       </c>
       <c r="F13">
-        <v>0.9885947852674996</v>
+        <v>1.070332438249143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037565531584337</v>
+        <v>1.043246569305081</v>
       </c>
       <c r="J13">
-        <v>1.005018422346261</v>
+        <v>1.063147976966571</v>
       </c>
       <c r="K13">
-        <v>1.033108280600792</v>
+        <v>1.046193889015889</v>
       </c>
       <c r="L13">
-        <v>1.004543806138517</v>
+        <v>1.065432259617818</v>
       </c>
       <c r="M13">
-        <v>1.003899021718573</v>
+        <v>1.073810805352313</v>
       </c>
       <c r="N13">
-        <v>1.006445663783217</v>
+        <v>1.064657769038641</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.975918498339316</v>
+        <v>1.056947655603769</v>
       </c>
       <c r="D14">
-        <v>1.019143583519949</v>
+        <v>1.042742593494295</v>
       </c>
       <c r="E14">
-        <v>0.9907836819938863</v>
+        <v>1.06218214041711</v>
       </c>
       <c r="F14">
-        <v>0.9902918391261794</v>
+        <v>1.070621916029748</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038072946551527</v>
+        <v>1.043313774056409</v>
       </c>
       <c r="J14">
-        <v>1.006365724517702</v>
+        <v>1.063368965537682</v>
       </c>
       <c r="K14">
-        <v>1.033729797663229</v>
+        <v>1.046288573049404</v>
       </c>
       <c r="L14">
-        <v>1.005898723103441</v>
+        <v>1.065658437146381</v>
       </c>
       <c r="M14">
-        <v>1.005416401853064</v>
+        <v>1.074068827130123</v>
       </c>
       <c r="N14">
-        <v>1.007794879278279</v>
+        <v>1.064879071438871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9769846792911331</v>
+        <v>1.05712084938845</v>
       </c>
       <c r="D15">
-        <v>1.019619031815238</v>
+        <v>1.042820532570218</v>
       </c>
       <c r="E15">
-        <v>0.9917209852840578</v>
+        <v>1.062340945757569</v>
       </c>
       <c r="F15">
-        <v>0.9913306950340899</v>
+        <v>1.07080023454129</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038383311730445</v>
+        <v>1.043355132705791</v>
       </c>
       <c r="J15">
-        <v>1.007190188494857</v>
+        <v>1.063505063002957</v>
       </c>
       <c r="K15">
-        <v>1.034110282209685</v>
+        <v>1.04634687402037</v>
       </c>
       <c r="L15">
-        <v>1.00672793251131</v>
+        <v>1.065797737655129</v>
       </c>
       <c r="M15">
-        <v>1.006345126332124</v>
+        <v>1.074227753558139</v>
       </c>
       <c r="N15">
-        <v>1.008620514088849</v>
+        <v>1.065015362178157</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9830835896679088</v>
+        <v>1.058128103341524</v>
       </c>
       <c r="D16">
-        <v>1.022347034379209</v>
+        <v>1.043273860005507</v>
       </c>
       <c r="E16">
-        <v>0.997086784277471</v>
+        <v>1.063264612861415</v>
       </c>
       <c r="F16">
-        <v>0.9972781331041695</v>
+        <v>1.071837549051351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040156273584311</v>
+        <v>1.043595120719093</v>
       </c>
       <c r="J16">
-        <v>1.011905839202151</v>
+        <v>1.064296286350891</v>
       </c>
       <c r="K16">
-        <v>1.036288669016558</v>
+        <v>1.046685648000637</v>
       </c>
       <c r="L16">
-        <v>1.01147200463811</v>
+        <v>1.066607695050289</v>
       </c>
       <c r="M16">
-        <v>1.011659883394842</v>
+        <v>1.075152029057105</v>
       </c>
       <c r="N16">
-        <v>1.01334286156104</v>
+        <v>1.065807709153999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9868197083533572</v>
+        <v>1.058759224539016</v>
       </c>
       <c r="D17">
-        <v>1.024025016899515</v>
+        <v>1.043557947647393</v>
       </c>
       <c r="E17">
-        <v>1.000377242636935</v>
+        <v>1.063843441710442</v>
       </c>
       <c r="F17">
-        <v>1.000925565228775</v>
+        <v>1.072487730701434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041240094933261</v>
+        <v>1.043745011791451</v>
       </c>
       <c r="J17">
-        <v>1.014793980963152</v>
+        <v>1.064791794680262</v>
       </c>
       <c r="K17">
-        <v>1.03762451744752</v>
+        <v>1.046897658255089</v>
       </c>
       <c r="L17">
-        <v>1.014378660654927</v>
+        <v>1.067115034873515</v>
       </c>
       <c r="M17">
-        <v>1.014917385373059</v>
+        <v>1.075731154963705</v>
       </c>
       <c r="N17">
-        <v>1.016235104814616</v>
+        <v>1.066303921162033</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9889682970148885</v>
+        <v>1.059127097465181</v>
       </c>
       <c r="D18">
-        <v>1.024992308084288</v>
+        <v>1.043723553608367</v>
       </c>
       <c r="E18">
-        <v>1.00227071236875</v>
+        <v>1.06418086304945</v>
       </c>
       <c r="F18">
-        <v>1.003024579058287</v>
+        <v>1.072866794699855</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041862512227408</v>
+        <v>1.043832208399309</v>
       </c>
       <c r="J18">
-        <v>1.016454646110234</v>
+        <v>1.065080529090729</v>
       </c>
       <c r="K18">
-        <v>1.038393149321388</v>
+        <v>1.047021143122526</v>
       </c>
       <c r="L18">
-        <v>1.01605036513555</v>
+        <v>1.067410699275175</v>
       </c>
       <c r="M18">
-        <v>1.016791307766981</v>
+        <v>1.076068719218816</v>
       </c>
       <c r="N18">
-        <v>1.017898128296688</v>
+        <v>1.066593065608482</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9896958631713701</v>
+        <v>1.059252490682643</v>
       </c>
       <c r="D19">
-        <v>1.025320234724025</v>
+        <v>1.043780004481103</v>
       </c>
       <c r="E19">
-        <v>1.002912082466754</v>
+        <v>1.064295881427802</v>
       </c>
       <c r="F19">
-        <v>1.003735595749666</v>
+        <v>1.07299601622236</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042073125294228</v>
+        <v>1.043861900865765</v>
       </c>
       <c r="J19">
-        <v>1.017016940239095</v>
+        <v>1.065178931623482</v>
       </c>
       <c r="K19">
-        <v>1.038653487195725</v>
+        <v>1.047063218301955</v>
       </c>
       <c r="L19">
-        <v>1.016616463530343</v>
+        <v>1.067511469655176</v>
       </c>
       <c r="M19">
-        <v>1.017425958931829</v>
+        <v>1.076183781191399</v>
       </c>
       <c r="N19">
-        <v>1.018461220947708</v>
+        <v>1.066691607884119</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9864220616150559</v>
+        <v>1.058691537088907</v>
       </c>
       <c r="D20">
-        <v>1.023846180683625</v>
+        <v>1.043527477838675</v>
       </c>
       <c r="E20">
-        <v>1.000026905485428</v>
+        <v>1.063781359584692</v>
       </c>
       <c r="F20">
-        <v>1.000537208163701</v>
+        <v>1.072417990645634</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041124830026387</v>
+        <v>1.043728953947482</v>
       </c>
       <c r="J20">
-        <v>1.014486613524969</v>
+        <v>1.064738661100528</v>
       </c>
       <c r="K20">
-        <v>1.037482294745669</v>
+        <v>1.046874929900369</v>
       </c>
       <c r="L20">
-        <v>1.014069281809231</v>
+        <v>1.067060628899316</v>
       </c>
       <c r="M20">
-        <v>1.0145706179864</v>
+        <v>1.075669044108831</v>
       </c>
       <c r="N20">
-        <v>1.015927300879416</v>
+        <v>1.066250712126523</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9754069768669981</v>
+        <v>1.056864864817488</v>
       </c>
       <c r="D21">
-        <v>1.018915632515015</v>
+        <v>1.042705337703933</v>
       </c>
       <c r="E21">
-        <v>0.990334068443985</v>
+        <v>1.062106229303943</v>
       </c>
       <c r="F21">
-        <v>0.9897935161741824</v>
+        <v>1.070536680038315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037924001248827</v>
+        <v>1.043293994023297</v>
       </c>
       <c r="J21">
-        <v>1.005970163355059</v>
+        <v>1.063303902612335</v>
       </c>
       <c r="K21">
-        <v>1.033547290418527</v>
+        <v>1.046260698671267</v>
       </c>
       <c r="L21">
-        <v>1.005500908338117</v>
+        <v>1.065591844961754</v>
       </c>
       <c r="M21">
-        <v>1.004970868303048</v>
+        <v>1.073992856437763</v>
       </c>
       <c r="N21">
-        <v>1.007398756373414</v>
+        <v>1.064813916116707</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9681680637709812</v>
+        <v>1.05571403482316</v>
       </c>
       <c r="D22">
-        <v>1.015700633951567</v>
+        <v>1.04218753130085</v>
       </c>
       <c r="E22">
-        <v>0.9839765960379955</v>
+        <v>1.061051140191156</v>
       </c>
       <c r="F22">
-        <v>0.9827475207914316</v>
+        <v>1.069352162159003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035813548841099</v>
+        <v>1.043018405707533</v>
       </c>
       <c r="J22">
-        <v>1.000371880447084</v>
+        <v>1.062399161999282</v>
       </c>
       <c r="K22">
-        <v>1.030967345457104</v>
+        <v>1.045872894194351</v>
       </c>
       <c r="L22">
-        <v>0.9998723058802322</v>
+        <v>1.064665971247322</v>
       </c>
       <c r="M22">
-        <v>0.9986686792397136</v>
+        <v>1.072936826348854</v>
       </c>
       <c r="N22">
-        <v>1.001792523261577</v>
+        <v>1.063907890668208</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9720372326334634</v>
+        <v>1.05632433629355</v>
       </c>
       <c r="D23">
-        <v>1.017416489101782</v>
+        <v>1.042462115791994</v>
       </c>
       <c r="E23">
-        <v>0.987373395050306</v>
+        <v>1.061610643329847</v>
       </c>
       <c r="F23">
-        <v>0.9865121536340216</v>
+        <v>1.06998025895423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036942158971924</v>
+        <v>1.043164701373419</v>
       </c>
       <c r="J23">
-        <v>1.003364217910111</v>
+        <v>1.062879036494249</v>
       </c>
       <c r="K23">
-        <v>1.032345630952118</v>
+        <v>1.04607863041073</v>
       </c>
       <c r="L23">
-        <v>1.002880486907174</v>
+        <v>1.065157024156174</v>
       </c>
       <c r="M23">
-        <v>1.002036496519874</v>
+        <v>1.07349685462464</v>
       </c>
       <c r="N23">
-        <v>1.004789110187028</v>
+        <v>1.06438844664</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9866018353135494</v>
+        <v>1.058722122904733</v>
       </c>
       <c r="D24">
-        <v>1.02392702432493</v>
+        <v>1.04354124613539</v>
       </c>
       <c r="E24">
-        <v>1.000185287169373</v>
+        <v>1.063809412442341</v>
       </c>
       <c r="F24">
-        <v>1.000712777630501</v>
+        <v>1.072449503718762</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041176943324329</v>
+        <v>1.043736210513908</v>
       </c>
       <c r="J24">
-        <v>1.014625573326554</v>
+        <v>1.06476267076569</v>
       </c>
       <c r="K24">
-        <v>1.037546591539594</v>
+        <v>1.046885200413026</v>
       </c>
       <c r="L24">
-        <v>1.014209149738445</v>
+        <v>1.067085213415532</v>
       </c>
       <c r="M24">
-        <v>1.014727387646507</v>
+        <v>1.075697110041701</v>
       </c>
       <c r="N24">
-        <v>1.016066458019858</v>
+        <v>1.066274755888162</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00231440191716</v>
+        <v>1.061494878847631</v>
       </c>
       <c r="D25">
-        <v>1.031037161930142</v>
+        <v>1.044789697470608</v>
       </c>
       <c r="E25">
-        <v>1.014051153676748</v>
+        <v>1.066353160913011</v>
       </c>
       <c r="F25">
-        <v>1.016086585048901</v>
+        <v>1.075308061544601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045711841225495</v>
+        <v>1.044390311022184</v>
       </c>
       <c r="J25">
-        <v>1.02676412745609</v>
+        <v>1.066937288484681</v>
       </c>
       <c r="K25">
-        <v>1.043172040853274</v>
+        <v>1.047814240137005</v>
       </c>
       <c r="L25">
-        <v>1.026435190299739</v>
+        <v>1.069312667739351</v>
       </c>
       <c r="M25">
-        <v>1.028440206495449</v>
+        <v>1.078241393988692</v>
       </c>
       <c r="N25">
-        <v>1.028222250288569</v>
+        <v>1.068452461813747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063698992546387</v>
+        <v>1.014046835093479</v>
       </c>
       <c r="D2">
-        <v>1.045782457955618</v>
+        <v>1.036400281881311</v>
       </c>
       <c r="E2">
-        <v>1.068376116009812</v>
+        <v>1.024434029982359</v>
       </c>
       <c r="F2">
-        <v>1.077582912093766</v>
+        <v>1.027604410287012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044904775299537</v>
+        <v>1.049065972447481</v>
       </c>
       <c r="J2">
-        <v>1.068663028303149</v>
+        <v>1.0358153740355</v>
       </c>
       <c r="K2">
-        <v>1.048549731816482</v>
+        <v>1.047374766987418</v>
       </c>
       <c r="L2">
-        <v>1.071081464442082</v>
+        <v>1.035563139952603</v>
       </c>
       <c r="M2">
-        <v>1.080263831214167</v>
+        <v>1.038692114367559</v>
       </c>
       <c r="N2">
-        <v>1.070180652380701</v>
+        <v>1.037286350676353</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.06529527807644</v>
+        <v>1.022166058484739</v>
       </c>
       <c r="D3">
-        <v>1.046501588922199</v>
+        <v>1.040136695735246</v>
       </c>
       <c r="E3">
-        <v>1.069841698826519</v>
+        <v>1.031633895808596</v>
       </c>
       <c r="F3">
-        <v>1.079231884031212</v>
+        <v>1.03559539369566</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045274168214591</v>
+        <v>1.051366421859561</v>
       </c>
       <c r="J3">
-        <v>1.069911169654141</v>
+        <v>1.042070167171155</v>
       </c>
       <c r="K3">
-        <v>1.049080613309382</v>
+        <v>1.050280538946526</v>
       </c>
       <c r="L3">
-        <v>1.072361399854886</v>
+        <v>1.041877403002637</v>
       </c>
       <c r="M3">
-        <v>1.081728496877777</v>
+        <v>1.045792214949474</v>
       </c>
       <c r="N3">
-        <v>1.071430566235576</v>
+        <v>1.043550026335656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066326355271698</v>
+        <v>1.027252899769799</v>
       </c>
       <c r="D4">
-        <v>1.04696614021125</v>
+        <v>1.042487359180475</v>
       </c>
       <c r="E4">
-        <v>1.070788577714938</v>
+        <v>1.036150815859175</v>
       </c>
       <c r="F4">
-        <v>1.080297662927486</v>
+        <v>1.040610746316483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045511283590716</v>
+        <v>1.052797459583559</v>
       </c>
       <c r="J4">
-        <v>1.070716587263323</v>
+        <v>1.045984262622213</v>
       </c>
       <c r="K4">
-        <v>1.049422685365117</v>
+        <v>1.052098678519123</v>
       </c>
       <c r="L4">
-        <v>1.073187636220298</v>
+        <v>1.045831664711922</v>
       </c>
       <c r="M4">
-        <v>1.082674534170647</v>
+        <v>1.050242548953299</v>
       </c>
       <c r="N4">
-        <v>1.072237127630146</v>
+        <v>1.047469680251208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066759392608112</v>
+        <v>1.029353871284621</v>
       </c>
       <c r="D5">
-        <v>1.047161253765016</v>
+        <v>1.043460320543246</v>
       </c>
       <c r="E5">
-        <v>1.07118630629387</v>
+        <v>1.03801776600658</v>
       </c>
       <c r="F5">
-        <v>1.080745434446511</v>
+        <v>1.042684248161809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045610512600977</v>
+        <v>1.053385959874301</v>
       </c>
       <c r="J5">
-        <v>1.071054662424139</v>
+        <v>1.047599681706498</v>
       </c>
       <c r="K5">
-        <v>1.049566148702242</v>
+        <v>1.052848878026958</v>
       </c>
       <c r="L5">
-        <v>1.073534522472364</v>
+        <v>1.04746436527284</v>
       </c>
       <c r="M5">
-        <v>1.083071849868183</v>
+        <v>1.052081036689237</v>
       </c>
       <c r="N5">
-        <v>1.072575682896468</v>
+        <v>1.049087393415884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066832076693286</v>
+        <v>1.029704498348859</v>
       </c>
       <c r="D6">
-        <v>1.047194003457137</v>
+        <v>1.043622812137178</v>
       </c>
       <c r="E6">
-        <v>1.071253067010076</v>
+        <v>1.038329415703048</v>
       </c>
       <c r="F6">
-        <v>1.080820600989652</v>
+        <v>1.043030409961104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045627147010137</v>
+        <v>1.053484021085116</v>
       </c>
       <c r="J6">
-        <v>1.071111396313383</v>
+        <v>1.047869204306772</v>
       </c>
       <c r="K6">
-        <v>1.049590216724245</v>
+        <v>1.052974029983673</v>
       </c>
       <c r="L6">
-        <v>1.073592739236417</v>
+        <v>1.047736812497886</v>
       </c>
       <c r="M6">
-        <v>1.083138537805171</v>
+        <v>1.052387880326557</v>
       </c>
       <c r="N6">
-        <v>1.072632497354343</v>
+        <v>1.049357298769166</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066332143205659</v>
+        <v>1.027281117530214</v>
       </c>
       <c r="D7">
-        <v>1.046968748048384</v>
+        <v>1.04250041889016</v>
       </c>
       <c r="E7">
-        <v>1.070793893506905</v>
+        <v>1.03617588521768</v>
       </c>
       <c r="F7">
-        <v>1.080303647168824</v>
+        <v>1.040638587079153</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045512611276049</v>
+        <v>1.052805373830051</v>
       </c>
       <c r="J7">
-        <v>1.070721106683654</v>
+        <v>1.046005963793523</v>
       </c>
       <c r="K7">
-        <v>1.049424603677668</v>
+        <v>1.052108757404068</v>
       </c>
       <c r="L7">
-        <v>1.073192273143444</v>
+        <v>1.045853595254415</v>
       </c>
       <c r="M7">
-        <v>1.082679844677392</v>
+        <v>1.050267239820593</v>
       </c>
       <c r="N7">
-        <v>1.072241653468571</v>
+        <v>1.04749141224067</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064238848714735</v>
+        <v>1.016826830015482</v>
       </c>
       <c r="D8">
-        <v>1.046025652985839</v>
+        <v>1.03767740283263</v>
       </c>
       <c r="E8">
-        <v>1.068871721962674</v>
+        <v>1.026897898887586</v>
       </c>
       <c r="F8">
-        <v>1.078140447279862</v>
+        <v>1.030338580286902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045030009417458</v>
+        <v>1.049855743536664</v>
       </c>
       <c r="J8">
-        <v>1.069085306305535</v>
+        <v>1.037957932133176</v>
       </c>
       <c r="K8">
-        <v>1.048729445786476</v>
+        <v>1.048370095103147</v>
       </c>
       <c r="L8">
-        <v>1.071514436501204</v>
+        <v>1.037725442141037</v>
       </c>
       <c r="M8">
-        <v>1.080759178787896</v>
+        <v>1.041122698454373</v>
       </c>
       <c r="N8">
-        <v>1.070603530066287</v>
+        <v>1.039431951452244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060535773092363</v>
+        <v>0.997005964657806</v>
       </c>
       <c r="D9">
-        <v>1.044357793157307</v>
+        <v>1.028625431106612</v>
       </c>
       <c r="E9">
-        <v>1.065473130716388</v>
+        <v>1.009361553690288</v>
       </c>
       <c r="F9">
-        <v>1.074318882725427</v>
+        <v>1.010886171116471</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044164905025057</v>
+        <v>1.044184537491955</v>
       </c>
       <c r="J9">
-        <v>1.066185529719609</v>
+        <v>1.022664894851878</v>
       </c>
       <c r="K9">
-        <v>1.047493345634565</v>
+        <v>1.041270546177531</v>
       </c>
       <c r="L9">
-        <v>1.068542468707098</v>
+        <v>1.022304550444805</v>
       </c>
       <c r="M9">
-        <v>1.077361325499974</v>
+        <v>1.02380506281607</v>
       </c>
       <c r="N9">
-        <v>1.067699635465</v>
+        <v>1.02411719630387</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058056746553935</v>
+        <v>0.982657112002174</v>
       </c>
       <c r="D10">
-        <v>1.043241742116987</v>
+        <v>1.022155820245222</v>
       </c>
       <c r="E10">
-        <v>1.063199172374968</v>
+        <v>0.9967113441039686</v>
       </c>
       <c r="F10">
-        <v>1.071764048198056</v>
+        <v>0.9968619782400928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043578150088268</v>
+        <v>1.040032439711493</v>
       </c>
       <c r="J10">
-        <v>1.064240250066305</v>
+        <v>1.011576125057424</v>
       </c>
       <c r="K10">
-        <v>1.046661664777704</v>
+        <v>1.036136244481809</v>
       </c>
       <c r="L10">
-        <v>1.066550325600353</v>
+        <v>1.011140231207348</v>
       </c>
       <c r="M10">
-        <v>1.075086550884299</v>
+        <v>1.011288122730541</v>
       </c>
       <c r="N10">
-        <v>1.065751593291461</v>
+        <v>1.013012679184409</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056980718591086</v>
+        <v>0.9761224400270221</v>
       </c>
       <c r="D11">
-        <v>1.042757471987083</v>
+        <v>1.019234494744888</v>
       </c>
       <c r="E11">
-        <v>1.062212456264903</v>
+        <v>0.9909629550298599</v>
       </c>
       <c r="F11">
-        <v>1.070655956343567</v>
+        <v>0.9904905346565677</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043321671594567</v>
+        <v>1.038132323058076</v>
       </c>
       <c r="J11">
-        <v>1.063394947884082</v>
+        <v>1.006523431824145</v>
       </c>
       <c r="K11">
-        <v>1.04629970392311</v>
+        <v>1.03380256950172</v>
       </c>
       <c r="L11">
-        <v>1.06568503054958</v>
+        <v>1.006057333082564</v>
       </c>
       <c r="M11">
-        <v>1.074099166464826</v>
+        <v>1.005594041735483</v>
       </c>
       <c r="N11">
-        <v>1.064905090683182</v>
+        <v>1.007952810547187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056580632442411</v>
+        <v>0.9736415840988043</v>
       </c>
       <c r="D12">
-        <v>1.042577438128401</v>
+        <v>1.018129689421544</v>
       </c>
       <c r="E12">
-        <v>1.061845623929459</v>
+        <v>0.9887827168199712</v>
       </c>
       <c r="F12">
-        <v>1.070244075198306</v>
+        <v>0.9880741160995345</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043226039304036</v>
+        <v>1.037409753325943</v>
       </c>
       <c r="J12">
-        <v>1.063080507614276</v>
+        <v>1.004604943155308</v>
       </c>
       <c r="K12">
-        <v>1.046164976984423</v>
+        <v>1.032917605000731</v>
       </c>
       <c r="L12">
-        <v>1.065363208986827</v>
+        <v>1.004128024546161</v>
       </c>
       <c r="M12">
-        <v>1.073732038193133</v>
+        <v>1.003433420254232</v>
       </c>
       <c r="N12">
-        <v>1.064590203872127</v>
+        <v>1.006031597404386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056666470637655</v>
+        <v>0.974176254852881</v>
       </c>
       <c r="D13">
-        <v>1.04261606302398</v>
+        <v>1.018367594723385</v>
       </c>
       <c r="E13">
-        <v>1.061924325444618</v>
+        <v>0.989252500171398</v>
       </c>
       <c r="F13">
-        <v>1.070332438249143</v>
+        <v>0.9885947852675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043246569305081</v>
+        <v>1.037565531584337</v>
       </c>
       <c r="J13">
-        <v>1.063147976966571</v>
+        <v>1.005018422346261</v>
       </c>
       <c r="K13">
-        <v>1.046193889015889</v>
+        <v>1.033108280600792</v>
       </c>
       <c r="L13">
-        <v>1.065432259617818</v>
+        <v>1.004543806138517</v>
       </c>
       <c r="M13">
-        <v>1.073810805352313</v>
+        <v>1.003899021718573</v>
       </c>
       <c r="N13">
-        <v>1.064657769038641</v>
+        <v>1.006445663783217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056947655603769</v>
+        <v>0.9759184983393168</v>
       </c>
       <c r="D14">
-        <v>1.042742593494295</v>
+        <v>1.019143583519948</v>
       </c>
       <c r="E14">
-        <v>1.06218214041711</v>
+        <v>0.990783681993887</v>
       </c>
       <c r="F14">
-        <v>1.070621916029748</v>
+        <v>0.9902918391261801</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043313774056409</v>
+        <v>1.038072946551527</v>
       </c>
       <c r="J14">
-        <v>1.063368965537682</v>
+        <v>1.006365724517703</v>
       </c>
       <c r="K14">
-        <v>1.046288573049404</v>
+        <v>1.033729797663229</v>
       </c>
       <c r="L14">
-        <v>1.065658437146381</v>
+        <v>1.005898723103441</v>
       </c>
       <c r="M14">
-        <v>1.074068827130123</v>
+        <v>1.005416401853065</v>
       </c>
       <c r="N14">
-        <v>1.064879071438871</v>
+        <v>1.00779487927828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05712084938845</v>
+        <v>0.9769846792911319</v>
       </c>
       <c r="D15">
-        <v>1.042820532570218</v>
+        <v>1.019619031815238</v>
       </c>
       <c r="E15">
-        <v>1.062340945757569</v>
+        <v>0.9917209852840566</v>
       </c>
       <c r="F15">
-        <v>1.07080023454129</v>
+        <v>0.9913306950340884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043355132705791</v>
+        <v>1.038383311730445</v>
       </c>
       <c r="J15">
-        <v>1.063505063002957</v>
+        <v>1.007190188494856</v>
       </c>
       <c r="K15">
-        <v>1.04634687402037</v>
+        <v>1.034110282209685</v>
       </c>
       <c r="L15">
-        <v>1.065797737655129</v>
+        <v>1.006727932511309</v>
       </c>
       <c r="M15">
-        <v>1.074227753558139</v>
+        <v>1.006345126332122</v>
       </c>
       <c r="N15">
-        <v>1.065015362178157</v>
+        <v>1.008620514088848</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058128103341524</v>
+        <v>0.9830835896679084</v>
       </c>
       <c r="D16">
-        <v>1.043273860005507</v>
+        <v>1.022347034379209</v>
       </c>
       <c r="E16">
-        <v>1.063264612861415</v>
+        <v>0.9970867842774702</v>
       </c>
       <c r="F16">
-        <v>1.071837549051351</v>
+        <v>0.9972781331041687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043595120719093</v>
+        <v>1.040156273584311</v>
       </c>
       <c r="J16">
-        <v>1.064296286350891</v>
+        <v>1.011905839202151</v>
       </c>
       <c r="K16">
-        <v>1.046685648000637</v>
+        <v>1.036288669016558</v>
       </c>
       <c r="L16">
-        <v>1.066607695050289</v>
+        <v>1.01147200463811</v>
       </c>
       <c r="M16">
-        <v>1.075152029057105</v>
+        <v>1.011659883394841</v>
       </c>
       <c r="N16">
-        <v>1.065807709153999</v>
+        <v>1.01334286156104</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058759224539016</v>
+        <v>0.9868197083533554</v>
       </c>
       <c r="D17">
-        <v>1.043557947647393</v>
+        <v>1.024025016899514</v>
       </c>
       <c r="E17">
-        <v>1.063843441710442</v>
+        <v>1.000377242636934</v>
       </c>
       <c r="F17">
-        <v>1.072487730701434</v>
+        <v>1.000925565228774</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043745011791451</v>
+        <v>1.041240094933261</v>
       </c>
       <c r="J17">
-        <v>1.064791794680262</v>
+        <v>1.01479398096315</v>
       </c>
       <c r="K17">
-        <v>1.046897658255089</v>
+        <v>1.03762451744752</v>
       </c>
       <c r="L17">
-        <v>1.067115034873515</v>
+        <v>1.014378660654925</v>
       </c>
       <c r="M17">
-        <v>1.075731154963705</v>
+        <v>1.014917385373057</v>
       </c>
       <c r="N17">
-        <v>1.066303921162033</v>
+        <v>1.016235104814615</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059127097465181</v>
+        <v>0.9889682970148889</v>
       </c>
       <c r="D18">
-        <v>1.043723553608367</v>
+        <v>1.024992308084288</v>
       </c>
       <c r="E18">
-        <v>1.06418086304945</v>
+        <v>1.002270712368751</v>
       </c>
       <c r="F18">
-        <v>1.072866794699855</v>
+        <v>1.003024579058288</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043832208399309</v>
+        <v>1.041862512227408</v>
       </c>
       <c r="J18">
-        <v>1.065080529090729</v>
+        <v>1.016454646110234</v>
       </c>
       <c r="K18">
-        <v>1.047021143122526</v>
+        <v>1.038393149321388</v>
       </c>
       <c r="L18">
-        <v>1.067410699275175</v>
+        <v>1.016050365135551</v>
       </c>
       <c r="M18">
-        <v>1.076068719218816</v>
+        <v>1.016791307766981</v>
       </c>
       <c r="N18">
-        <v>1.066593065608482</v>
+        <v>1.017898128296688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059252490682643</v>
+        <v>0.9896958631713708</v>
       </c>
       <c r="D19">
-        <v>1.043780004481103</v>
+        <v>1.025320234724025</v>
       </c>
       <c r="E19">
-        <v>1.064295881427802</v>
+        <v>1.002912082466754</v>
       </c>
       <c r="F19">
-        <v>1.07299601622236</v>
+        <v>1.003735595749666</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043861900865765</v>
+        <v>1.042073125294228</v>
       </c>
       <c r="J19">
-        <v>1.065178931623482</v>
+        <v>1.017016940239095</v>
       </c>
       <c r="K19">
-        <v>1.047063218301955</v>
+        <v>1.038653487195725</v>
       </c>
       <c r="L19">
-        <v>1.067511469655176</v>
+        <v>1.016616463530343</v>
       </c>
       <c r="M19">
-        <v>1.076183781191399</v>
+        <v>1.01742595893183</v>
       </c>
       <c r="N19">
-        <v>1.066691607884119</v>
+        <v>1.018461220947708</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058691537088907</v>
+        <v>0.9864220616150545</v>
       </c>
       <c r="D20">
-        <v>1.043527477838675</v>
+        <v>1.023846180683625</v>
       </c>
       <c r="E20">
-        <v>1.063781359584692</v>
+        <v>1.000026905485426</v>
       </c>
       <c r="F20">
-        <v>1.072417990645634</v>
+        <v>1.0005372081637</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043728953947482</v>
+        <v>1.041124830026387</v>
       </c>
       <c r="J20">
-        <v>1.064738661100528</v>
+        <v>1.014486613524968</v>
       </c>
       <c r="K20">
-        <v>1.046874929900369</v>
+        <v>1.037482294745668</v>
       </c>
       <c r="L20">
-        <v>1.067060628899316</v>
+        <v>1.014069281809229</v>
       </c>
       <c r="M20">
-        <v>1.075669044108831</v>
+        <v>1.014570617986398</v>
       </c>
       <c r="N20">
-        <v>1.066250712126523</v>
+        <v>1.015927300879415</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056864864817488</v>
+        <v>0.9754069768669972</v>
       </c>
       <c r="D21">
-        <v>1.042705337703933</v>
+        <v>1.018915632515014</v>
       </c>
       <c r="E21">
-        <v>1.062106229303943</v>
+        <v>0.990334068443984</v>
       </c>
       <c r="F21">
-        <v>1.070536680038315</v>
+        <v>0.9897935161741817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043293994023297</v>
+        <v>1.037924001248826</v>
       </c>
       <c r="J21">
-        <v>1.063303902612335</v>
+        <v>1.005970163355058</v>
       </c>
       <c r="K21">
-        <v>1.046260698671267</v>
+        <v>1.033547290418526</v>
       </c>
       <c r="L21">
-        <v>1.065591844961754</v>
+        <v>1.005500908338117</v>
       </c>
       <c r="M21">
-        <v>1.073992856437763</v>
+        <v>1.004970868303048</v>
       </c>
       <c r="N21">
-        <v>1.064813916116707</v>
+        <v>1.007398756373413</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05571403482316</v>
+        <v>0.9681680637709821</v>
       </c>
       <c r="D22">
-        <v>1.04218753130085</v>
+        <v>1.015700633951567</v>
       </c>
       <c r="E22">
-        <v>1.061051140191156</v>
+        <v>0.9839765960379963</v>
       </c>
       <c r="F22">
-        <v>1.069352162159003</v>
+        <v>0.9827475207914319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043018405707533</v>
+        <v>1.0358135488411</v>
       </c>
       <c r="J22">
-        <v>1.062399161999282</v>
+        <v>1.000371880447085</v>
       </c>
       <c r="K22">
-        <v>1.045872894194351</v>
+        <v>1.030967345457104</v>
       </c>
       <c r="L22">
-        <v>1.064665971247322</v>
+        <v>0.9998723058802331</v>
       </c>
       <c r="M22">
-        <v>1.072936826348854</v>
+        <v>0.9986686792397143</v>
       </c>
       <c r="N22">
-        <v>1.063907890668208</v>
+        <v>1.001792523261578</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05632433629355</v>
+        <v>0.9720372326334628</v>
       </c>
       <c r="D23">
-        <v>1.042462115791994</v>
+        <v>1.017416489101782</v>
       </c>
       <c r="E23">
-        <v>1.061610643329847</v>
+        <v>0.9873733950503051</v>
       </c>
       <c r="F23">
-        <v>1.06998025895423</v>
+        <v>0.9865121536340207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043164701373419</v>
+        <v>1.036942158971923</v>
       </c>
       <c r="J23">
-        <v>1.062879036494249</v>
+        <v>1.00336421791011</v>
       </c>
       <c r="K23">
-        <v>1.04607863041073</v>
+        <v>1.032345630952118</v>
       </c>
       <c r="L23">
-        <v>1.065157024156174</v>
+        <v>1.002880486907173</v>
       </c>
       <c r="M23">
-        <v>1.07349685462464</v>
+        <v>1.002036496519873</v>
       </c>
       <c r="N23">
-        <v>1.06438844664</v>
+        <v>1.004789110187027</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058722122904733</v>
+        <v>0.9866018353135486</v>
       </c>
       <c r="D24">
-        <v>1.04354124613539</v>
+        <v>1.02392702432493</v>
       </c>
       <c r="E24">
-        <v>1.063809412442341</v>
+        <v>1.000185287169372</v>
       </c>
       <c r="F24">
-        <v>1.072449503718762</v>
+        <v>1.000712777630499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043736210513908</v>
+        <v>1.041176943324328</v>
       </c>
       <c r="J24">
-        <v>1.06476267076569</v>
+        <v>1.014625573326553</v>
       </c>
       <c r="K24">
-        <v>1.046885200413026</v>
+        <v>1.037546591539594</v>
       </c>
       <c r="L24">
-        <v>1.067085213415532</v>
+        <v>1.014209149738444</v>
       </c>
       <c r="M24">
-        <v>1.075697110041701</v>
+        <v>1.014727387646505</v>
       </c>
       <c r="N24">
-        <v>1.066274755888162</v>
+        <v>1.016066458019857</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061494878847631</v>
+        <v>1.002314401917159</v>
       </c>
       <c r="D25">
-        <v>1.044789697470608</v>
+        <v>1.031037161930141</v>
       </c>
       <c r="E25">
-        <v>1.066353160913011</v>
+        <v>1.014051153676747</v>
       </c>
       <c r="F25">
-        <v>1.075308061544601</v>
+        <v>1.016086585048899</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044390311022184</v>
+        <v>1.045711841225495</v>
       </c>
       <c r="J25">
-        <v>1.066937288484681</v>
+        <v>1.026764127456089</v>
       </c>
       <c r="K25">
-        <v>1.047814240137005</v>
+        <v>1.043172040853274</v>
       </c>
       <c r="L25">
-        <v>1.069312667739351</v>
+        <v>1.026435190299738</v>
       </c>
       <c r="M25">
-        <v>1.078241393988692</v>
+        <v>1.028440206495448</v>
       </c>
       <c r="N25">
-        <v>1.068452461813747</v>
+        <v>1.028222250288569</v>
       </c>
     </row>
   </sheetData>
